--- a/Excel/DaftarKontak/SalesmanData.xlsx
+++ b/Excel/DaftarKontak/SalesmanData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>namasalesman</t>
   </si>
@@ -38,6 +38,15 @@
     <t>nokaryawan</t>
   </si>
   <si>
+    <t>namasalesman_edit</t>
+  </si>
+  <si>
+    <t>telepon_edit</t>
+  </si>
+  <si>
+    <t>nokaryawan_edit</t>
+  </si>
+  <si>
     <t>Juminten Wajiati</t>
   </si>
   <si>
@@ -45,6 +54,15 @@
   </si>
   <si>
     <t>JW01</t>
+  </si>
+  <si>
+    <t>Ruminten Jiawati</t>
+  </si>
+  <si>
+    <t>081334455599</t>
+  </si>
+  <si>
+    <t>RJ02</t>
   </si>
 </sst>
 </file>
@@ -660,11 +678,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1203,19 +1227,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="12.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="21.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,16 +1253,34 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
